--- a/study01/report/motivation/scr-signedup-participants/intrinsic-motivation/by-Type/NonParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-signedup-participants/intrinsic-motivation/by-Type/NonParametricAnalysis.xlsx
@@ -13853,13 +13853,13 @@
         <v>65.0</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>-1.745743121887939</v>
+        <v>-1.7457431218879391</v>
       </c>
       <c r="H12" t="n" s="178">
         <v>0.04238057699736303</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.3241763593892431</v>
+        <v>0.32417635938924316</v>
       </c>
       <c r="J12" t="s" s="180">
         <v>39</v>
@@ -13885,13 +13885,13 @@
         <v>65.0</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>-1.745743121887939</v>
+        <v>-1.7457431218879391</v>
       </c>
       <c r="H13" t="n" s="178">
         <v>0.04238057699736303</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.3241763593892431</v>
+        <v>0.32417635938924316</v>
       </c>
       <c r="J13" t="s" s="180">
         <v>39</v>
@@ -26791,13 +26791,13 @@
         <v>65.0</v>
       </c>
       <c r="G7" t="n" s="786">
-        <v>-1.745743121887939</v>
+        <v>-1.7457431218879391</v>
       </c>
       <c r="H7" t="n" s="787">
         <v>0.04238057699736303</v>
       </c>
       <c r="I7" t="n" s="788">
-        <v>0.3241763593892431</v>
+        <v>0.32417635938924316</v>
       </c>
       <c r="J7" t="s" s="789">
         <v>39</v>
@@ -26823,13 +26823,13 @@
         <v>65.0</v>
       </c>
       <c r="G8" t="n" s="786">
-        <v>-1.745743121887939</v>
+        <v>-1.7457431218879391</v>
       </c>
       <c r="H8" t="n" s="787">
         <v>0.04238057699736303</v>
       </c>
       <c r="I8" t="n" s="788">
-        <v>0.3241763593892431</v>
+        <v>0.32417635938924316</v>
       </c>
       <c r="J8" t="s" s="789">
         <v>39</v>
@@ -26892,13 +26892,13 @@
         <v>65.0</v>
       </c>
       <c r="G11" t="n" s="814">
-        <v>-1.745743121887939</v>
+        <v>-1.7457431218879391</v>
       </c>
       <c r="H11" t="n" s="815">
         <v>0.961540488785535</v>
       </c>
       <c r="I11" t="n" s="816">
-        <v>0.3241763593892431</v>
+        <v>0.32417635938924316</v>
       </c>
       <c r="J11" t="s" s="817">
         <v>39</v>
@@ -26924,13 +26924,13 @@
         <v>65.0</v>
       </c>
       <c r="G12" t="n" s="814">
-        <v>-1.745743121887939</v>
+        <v>-1.7457431218879391</v>
       </c>
       <c r="H12" t="n" s="815">
         <v>0.961540488785535</v>
       </c>
       <c r="I12" t="n" s="816">
-        <v>0.3241763593892431</v>
+        <v>0.32417635938924316</v>
       </c>
       <c r="J12" t="s" s="817">
         <v>39</v>
@@ -26993,13 +26993,13 @@
         <v>65.0</v>
       </c>
       <c r="G15" t="n" s="842">
-        <v>-1.745743121887939</v>
+        <v>-1.7457431218879391</v>
       </c>
       <c r="H15" t="n" s="843">
         <v>0.08476115399472606</v>
       </c>
       <c r="I15" t="n" s="844">
-        <v>0.3241763593892431</v>
+        <v>0.32417635938924316</v>
       </c>
       <c r="J15" t="s" s="845">
         <v>39</v>
@@ -27025,13 +27025,13 @@
         <v>65.0</v>
       </c>
       <c r="G16" t="n" s="842">
-        <v>-1.745743121887939</v>
+        <v>-1.7457431218879391</v>
       </c>
       <c r="H16" t="n" s="843">
         <v>0.08476115399472606</v>
       </c>
       <c r="I16" t="n" s="844">
-        <v>0.3241763593892431</v>
+        <v>0.32417635938924316</v>
       </c>
       <c r="J16" t="s" s="845">
         <v>39</v>
@@ -36849,13 +36849,13 @@
         <v>111.0</v>
       </c>
       <c r="G7" t="n" s="1287">
-        <v>-0.062217101683825514</v>
+        <v>-0.06221710168382551</v>
       </c>
       <c r="H7" t="n" s="1288">
         <v>0.4837086487715894</v>
       </c>
       <c r="I7" t="n" s="1289">
-        <v>0.011359236684941296</v>
+        <v>0.011359236684941295</v>
       </c>
       <c r="J7" t="s" s="1290">
         <v>116</v>
@@ -36881,13 +36881,13 @@
         <v>111.0</v>
       </c>
       <c r="G8" t="n" s="1287">
-        <v>-0.062217101683825514</v>
+        <v>-0.06221710168382551</v>
       </c>
       <c r="H8" t="n" s="1288">
         <v>0.4837086487715894</v>
       </c>
       <c r="I8" t="n" s="1289">
-        <v>0.011359236684941296</v>
+        <v>0.011359236684941295</v>
       </c>
       <c r="J8" t="s" s="1290">
         <v>116</v>
@@ -36950,13 +36950,13 @@
         <v>111.0</v>
       </c>
       <c r="G11" t="n" s="1315">
-        <v>-0.062217101683825514</v>
+        <v>-0.06221710168382551</v>
       </c>
       <c r="H11" t="n" s="1316">
         <v>0.5325563998186665</v>
       </c>
       <c r="I11" t="n" s="1317">
-        <v>0.011359236684941296</v>
+        <v>0.011359236684941295</v>
       </c>
       <c r="J11" t="s" s="1318">
         <v>116</v>
@@ -36982,13 +36982,13 @@
         <v>111.0</v>
       </c>
       <c r="G12" t="n" s="1315">
-        <v>-0.062217101683825514</v>
+        <v>-0.06221710168382551</v>
       </c>
       <c r="H12" t="n" s="1316">
         <v>0.5325563998186665</v>
       </c>
       <c r="I12" t="n" s="1317">
-        <v>0.011359236684941296</v>
+        <v>0.011359236684941295</v>
       </c>
       <c r="J12" t="s" s="1318">
         <v>116</v>
@@ -37051,13 +37051,13 @@
         <v>111.0</v>
       </c>
       <c r="G15" t="n" s="1343">
-        <v>-0.062217101683825514</v>
+        <v>-0.06221710168382551</v>
       </c>
       <c r="H15" t="n" s="1344">
         <v>0.9674172975431788</v>
       </c>
       <c r="I15" t="n" s="1345">
-        <v>0.011359236684941296</v>
+        <v>0.011359236684941295</v>
       </c>
       <c r="J15" t="s" s="1346">
         <v>116</v>
@@ -37083,13 +37083,13 @@
         <v>111.0</v>
       </c>
       <c r="G16" t="n" s="1343">
-        <v>-0.062217101683825514</v>
+        <v>-0.06221710168382551</v>
       </c>
       <c r="H16" t="n" s="1344">
         <v>0.9674172975431788</v>
       </c>
       <c r="I16" t="n" s="1345">
-        <v>0.011359236684941296</v>
+        <v>0.011359236684941295</v>
       </c>
       <c r="J16" t="s" s="1346">
         <v>116</v>
